--- a/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
@@ -422,7 +422,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191728838330992</v>
+        <v>0.191728838192998</v>
       </c>
       <c r="C2" t="n">
         <v>0.229324874567788</v>
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.231706336060891</v>
+        <v>0.231706336600402</v>
       </c>
       <c r="C3" t="n">
         <v>0.41417617106433</v>
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.402468405150579</v>
+        <v>0.402468405569239</v>
       </c>
       <c r="C4" t="n">
         <v>0.574170908843396</v>
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.134556611081122</v>
+        <v>0.134556611689982</v>
       </c>
       <c r="C5" t="n">
         <v>0.20343987578164</v>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.295241885349475</v>
+        <v>0.29524188513754</v>
       </c>
       <c r="C6" t="n">
         <v>0.446773167569566</v>
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0610463610608979</v>
+        <v>0.0610463610142554</v>
       </c>
       <c r="C7" t="n">
         <v>0.0594728439227492</v>
@@ -560,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0453460513717391</v>
+        <v>0.0453460513422276</v>
       </c>
       <c r="C8" t="n">
         <v>0.0203454573183426</v>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.117887591974868</v>
+        <v>0.117887591889866</v>
       </c>
       <c r="C9" t="n">
         <v>0.059926720944195</v>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.480699594622182</v>
+        <v>0.48069959497809</v>
       </c>
       <c r="C10" t="n">
         <v>0.291455797569775</v>
@@ -629,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.321082400614221</v>
+        <v>0.321082401095069</v>
       </c>
       <c r="C11" t="n">
         <v>0.236091837620962</v>
